--- a/inst/extdata/toyFiles/ROC/rocSp.xlsx
+++ b/inst/extdata/toyFiles/ROC/rocSp.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F481C4CD-1526-7C4D-9325-507FBD97F097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B406FB94-725D-DC44-BF8F-A8CDEDD31E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39300" yWindow="9560" windowWidth="11820" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17800" yWindow="740" windowWidth="10000" windowHeight="10160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
     <sheet name="FP" sheetId="2" r:id="rId2"/>
     <sheet name="TRUTH" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>CaseID</t>
   </si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>1, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
   </si>
 </sst>
 </file>
@@ -647,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1654,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E31"/>
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1948,7 +1957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>36</v>
       </c>
@@ -1965,7 +1974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>37</v>
       </c>
@@ -1982,7 +1991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>38</v>
       </c>
@@ -1998,8 +2007,11 @@
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>39</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>40</v>
       </c>
@@ -2033,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>46</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>47</v>
       </c>
@@ -2067,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>48</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>49</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>50</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>51</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>52</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>53</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>54</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>55</v>
       </c>
